--- a/EngineerDoc/Sensors/CostSpecs.xlsx
+++ b/EngineerDoc/Sensors/CostSpecs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>Source</t>
   </si>
@@ -195,22 +195,49 @@
     <t>HC-SR40</t>
   </si>
   <si>
-    <t>10 Ultrasonic sensors for collision detection</t>
-  </si>
-  <si>
     <t>robotshop.com</t>
   </si>
   <si>
     <t>DMS-80</t>
   </si>
   <si>
-    <t>6 distance sensors for distance measurement and collision detection</t>
-  </si>
-  <si>
     <t>http://www.robotshop.com/en/robotis-dms-distance-sensor-dms-80.html</t>
   </si>
   <si>
     <t>https://www.amazon.com/WYPH-Ultrasonic-HC-SR04-Distance-Measuring/dp/B00P5W1JLM/ref=sr_1_5?ie=UTF8&amp;qid=1507733316&amp;sr=8-5&amp;keywords=ultrasonic+sensor</t>
+  </si>
+  <si>
+    <t>pololu.com</t>
+  </si>
+  <si>
+    <t>Item Number</t>
+  </si>
+  <si>
+    <t>Model #</t>
+  </si>
+  <si>
+    <t>GP2Y0A02YK0F</t>
+  </si>
+  <si>
+    <t>Distance sensors for distance measurement and collision detection</t>
+  </si>
+  <si>
+    <t>Ultrasonic sensors for collision detection</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/1137</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/2450/specs</t>
+  </si>
+  <si>
+    <t>GP2Y0A51SK0F</t>
+  </si>
+  <si>
+    <t>Sharp analog distance sensor (2-15cm)</t>
+  </si>
+  <si>
+    <t>Sharp analog distance sensor (20-150cm)</t>
   </si>
 </sst>
 </file>
@@ -769,323 +796,387 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I22"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="16.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="51" customWidth="1"/>
-    <col min="6" max="6" width="9" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="56" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="172" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="13"/>
+    <col min="2" max="3" width="16.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="51" customWidth="1"/>
+    <col min="7" max="7" width="9" style="41" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="56" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="51" customWidth="1"/>
+    <col min="10" max="10" width="172" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="32" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" s="32" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="42"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="F3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="G3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="H3" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="I3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="J3" s="26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="49">
+      <c r="D4" s="36"/>
+      <c r="E4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="49">
         <v>1.5</v>
       </c>
-      <c r="F4" s="37">
+      <c r="G4" s="37">
         <v>10</v>
       </c>
-      <c r="G4" s="54">
+      <c r="H4" s="54">
         <v>6.23</v>
       </c>
-      <c r="H4" s="49">
-        <f>E4*F4+G4</f>
+      <c r="I4" s="49">
+        <f>F4*G4+H4</f>
         <v>21.23</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="49">
+        <v>14.9</v>
+      </c>
+      <c r="G5" s="37">
+        <v>6</v>
+      </c>
+      <c r="H5" s="54">
+        <v>0</v>
+      </c>
+      <c r="I5" s="49">
+        <f>+F5*G5</f>
+        <v>89.4</v>
+      </c>
+      <c r="J5" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="49">
-        <v>14.9</v>
-      </c>
-      <c r="F5" s="37">
-        <v>6</v>
-      </c>
-      <c r="G5" s="54">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1137</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="49">
+        <v>13.95</v>
+      </c>
+      <c r="G6" s="37">
+        <v>4</v>
+      </c>
+      <c r="H6" s="54">
         <v>0</v>
       </c>
-      <c r="H5" s="49">
-        <f>+E5*F5</f>
-        <v>89.4</v>
-      </c>
-      <c r="I5" s="27" t="s">
+      <c r="I6" s="49">
+        <f>+F6*G6</f>
+        <v>55.8</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="36">
+        <v>2450</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="49">
+        <v>7.95</v>
+      </c>
+      <c r="G7" s="37">
+        <v>4</v>
+      </c>
+      <c r="H7" s="54">
+        <v>0</v>
+      </c>
+      <c r="I7" s="49">
+        <f>+F7*G7</f>
+        <v>31.8</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="17"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="17"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="17"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="17"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="17"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="17"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="17"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="17"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="17"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="17"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="17"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="17"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="46"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="17"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="17"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="57">
-        <f>SUM(H4:H21)</f>
-        <v>110.63000000000001</v>
-      </c>
-      <c r="I22" s="28"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="57">
+        <f>SUM(I4:I21)</f>
+        <v>198.23000000000002</v>
+      </c>
+      <c r="J22" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1"/>
-    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="J4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="landscape" verticalDpi="597" r:id="rId3"/>
